--- a/download_table/output.xlsx
+++ b/download_table/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>source_link</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>associated_text</t>
         </is>
       </c>
@@ -453,119 +448,96 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.nhmrc.gov.au/file/18387/download?token=NBnWlQ8-</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[Errno 22] Invalid argument: 'downloads\\download?token=NBnWlQ8-'</t>
+          <t>clinica%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0008/3236219/Request-to-change-Departments.msg</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Themis TR1D form</t>
+          <t>clinica%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0018/3236220/Request-to-share-funding-between-University-of-Melbourne-departments-TR1F.msg</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/clinical-trials-and-cohort-studies-grants</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Themis TR1F form</t>
+          <t>clinica%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://gateway.research.unimelb.edu.au/resources/ethics-and-integrity/research-integrity/research-integrity-in-practice/conflict-of-interest</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/cre</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>here</t>
+          <t>clinica%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://healthandmedicalresearch.gov.au/images/help/NHMRC%20Sapphire%20MFA%20guide_HMR.pdf</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NHMRC guide</t>
+          <t>clinica%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.nhmrc.gov.au/file/14279/download?token=aK5Kr_gZ</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants#Funding%20Partners</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Direct Research Costs</t>
+          <t>clinica%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://staff.unimelb.edu.au/mdhs/research-development/research-collaboration-and-funding/grant-mentoring?_ga=2.207383891.1926808974.1707085361-5606f16a62243141946ac55ffe06e6048610a76b42147e009b562ba4af819daa</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-e-asia-joint-research-program-grants</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MDHS Townhall videos</t>
+          <t>clinica%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-collaborations-in-health-services-research</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>clinica%</t>
         </is>
       </c>
     </row>

--- a/download_table/output.xlsx
+++ b/download_table/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,91 +453,211 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>clinica%</t>
+          <t>a%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/postgraduate-scholarships</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>clinica%</t>
+          <t>a%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/clinical-trials-and-cohort-studies-grants</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/partnership-projects</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>clinica%</t>
+          <t>a%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/cre</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/development-grants</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>clinica%</t>
+          <t>a%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/cre</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>clinica%</t>
+          <t>a%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants#Funding%20Partners</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>clinica%</t>
+          <t>a%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-e-asia-joint-research-program-grants</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>clinica%</t>
+          <t>a%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/investigator-grants</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>a%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>a%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/clinical-trials-and-cohort-studies-grants</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>a%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>a%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>a%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-e-asia-joint-research-program-grants</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>a%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants#Funding%20Partners</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>a%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-collaborations-in-health-services-research</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>clinica%</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>a%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-amed-2024-aspire</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>a%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/2024-nhmrc-cihr-ccna</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>a%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-gacd-funding-call</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>a%</t>
         </is>
       </c>
     </row>

--- a/download_table/output.xlsx
+++ b/download_table/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>source_link</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>associated_text</t>
         </is>
       </c>
@@ -448,216 +453,731 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc</t>
+          <t>https://gateway.research.unimelb.edu.au/resources/ip-and-commercialisation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Go to the Research Gateway</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/postgraduate-scholarships</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/international-codes-and-contacts%20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>International Codes and Contacts</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/partnership-projects</t>
+          <t>http://www.eventbrite.com.au/o/research-innovation-amp-commercialisation-626087145</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/resources</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EventBrite</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/development-grants</t>
+          <t>https://gateway.research.unimelb.edu.au/services/research-innovation-and-commercialisation/micg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>relevant grants team</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/cre</t>
+          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0008/3236219/Request-to-change-Departments.msg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Themis TR1D form</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants</t>
+          <t>http://www.arc.gov.au/arc-centres-excellence%20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/coe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ARC Centres of Excellence</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls</t>
+          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0018/3236220/Request-to-share-funding-between-University-of-Melbourne-departments-TR1F.msg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Themis TR1F form</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/investigator-grants</t>
+          <t>https://healthandmedicalresearch.gov.au/images/help/NHMRC%20Sapphire%20MFA%20guide_HMR.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NHMRC guide</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>https://staff.unimelb.edu.au/mdhs/research-development/research-collaboration-and-funding/grant-mentoring?_ga=2.207383891.1926808974.1707085361-5606f16a62243141946ac55ffe06e6048610a76b42147e009b562ba4af819daa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>a%</t>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MDHS Townhall videos</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/clinical-trials-and-cohort-studies-grants</t>
+          <t>http://musse.unimelb.edu.au/october-12-97/woodward-medals-honour-history-and-science</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>https://gateway.research.unimelb.edu.au/resources/ethics-and-integrity/research-integrity/research-integrity-in-practice/conflict-of-interest</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>a%</t>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>here</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
+          <t>https://staff.unimelb.edu.au/research/research-systems/research-themis-guides/grants,-contracts-and-submissions/create-a-grant-submission-record</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-indonesia-research-partnership-program</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Themis guide</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-e-asia-joint-research-program-grants</t>
+          <t>http://musse.unimelb.edu.au/february-11-53/woodward-medallists-named</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants#Funding%20Partners</t>
+          <t>http://blogs.unimelb.edu.au/researchnews/2011/12/19/woodward-medals/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-collaborations-in-health-services-research</t>
+          <t>http://research.unimelb.edu.au/contact-us</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>relevant grants team</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-amed-2024-aspire</t>
+          <t>https://www.manchester.ac.uk/collaborate/worldwide/collaborations/manchester-melbourne-research-fund/</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/university-of-melbourne-university-of-manchester-research-fund</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Manchester-Melbourne Research Fund scheme website</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/2024-nhmrc-cihr-ccna</t>
+          <t>https://fbe-research.smartygrants.com.au/DE25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/establishment-grants-decra</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Smartygrants</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-gacd-funding-call</t>
+          <t>http://blogs.unimelb.edu.au/musse/?p=466</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>a%</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://staff.unimelb.edu.au/research/grants/materials-past-seminars/us-grant-accelerator-program-workshops</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/department-of-defense-dod</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://staff.unimelb.edu.au/research/grants/materials-past-seminars/us-grant-accelerator-program-workshops</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://library.unimelb.edu.au/openscholarship/open-access-publishing</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/the-carlo-and-rita-giugni-ecr-grant-for-aged-care-research</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://library.unimelb.edu.au/openscholarship/open-access-publishing;</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://vimeo.com/447312256/4c26b49d1a</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/early-career-industry-fellowship</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=download&amp;id=1XDQD4_K65J0Ur4nRWi-1UbTlh_EdPzC1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/invertebrate-management-research-seed-funding-scheme</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[Errno 22] Invalid argument: 'downloads\\uc?export=download&amp;id=1XDQD4_K65J0Ur4nRWi-1UbTlh_EdPzC1'</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://vimeo.com/780543000</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/discovery-indigenous</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://gateway.research.unimelb.edu.au/resources/outputs/research-outputs-support</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/discovery-indigenous</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>UoM Manage your research outputs</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.eventbrite.com.au/e/491443991207</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mrff/EMCR-Workshop-series-MRFF</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Please register your interest in the series</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://portal.bihealth.de/portal/</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/BUA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://portal.bihealth.de/portal/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>http://www.business.vic.gov.au/support-for-your-business/future-industries/sectorgrowth</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sector Growth Program</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0007/1272364/Sector-Growth-Fact-Sheet.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sector Growth Program Fact Sheet </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0004/1253245/NEJF-Application-Guidelines-21-Jan.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>New Energy Jobs Fund Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0006/1272363/Sector-Growth-Program-Guidelines.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sector Growth Program Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0007/1242916/9348-DEDJTR-VFI-Fundsheet_NEW-ENERGY_GREEN-PROOF-v11.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">New Energy Jobs Fund Fact Sheet </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>http://www.business.vic.gov.au/support-for-your-business/future-industries/future-industries-manufacturing-program</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Future Industries Manufacturing Program</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>http://www.arc.gov.au/important-dates</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Important Dates webpage</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0006/1219335/Future-IndustriesI-Manufacturing-Program-Guidelines-.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Manufacturing Program Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0009/1219356/Future-Industries-Manufacturing-Program-Fact-Sheet.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Manufacturing Program Fact Sheet</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://staff.unimelb.edu.au/research/research-systems/research-themis-guides/change-to-agreement-records-forms</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.arc.gov.au/grants/grant-administration</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>post-award variation</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>http://www.arc.gov.au/funding-agreement</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ARC Funding/Grant Agreement</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>http://research.unimelb.edu.au/contact-us/university-wide-contacts</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>RIC staff</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://wellcome.ac.uk/funding/innovator-awards-digital-technologies</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/wellcome-trust</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://wellcome.ac.uk/funding/innovator-awards-digital-technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.nhmrc.gov.au/file/14279/download?token=aK5Kr_gZ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Direct Research Costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://research.unimelb.edu.au/partner/technology-licensing/for-researchers/intellectual-property-for-researchers</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/international-codes-and-contacts</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Case-by-case</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://facultyandstaff.sgs.utoronto.ca/gfm/gfm-faqs</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/toronto-melbourne-irtg-call-for-proposals</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Full School of Graduate Studies (SGS) Graduate Faculty Membership</t>
         </is>
       </c>
     </row>

--- a/download_table/output.xlsx
+++ b/download_table/output.xlsx
@@ -425,13 +425,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="100" customWidth="1" min="1" max="1"/>
+    <col width="100" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -470,7 +475,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/international-codes-and-contacts%20</t>
+          <t>https://gateway.research.unimelb.edu.au/services/research-innovation-and-commercialisation/micg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,524 +485,524 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>International Codes and Contacts</t>
+          <t>relevant grants team</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://www.eventbrite.com.au/o/research-innovation-amp-commercialisation-626087145</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/international-codes-and-contacts%20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/resources</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EventBrite</t>
+          <t>International Codes and Contacts</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://gateway.research.unimelb.edu.au/services/research-innovation-and-commercialisation/micg</t>
+          <t>https://fbe-research.smartygrants.com.au/DE25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/establishment-grants-decra</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>relevant grants team</t>
+          <t>Smartygrants</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0008/3236219/Request-to-change-Departments.msg</t>
+          <t>http://musse.unimelb.edu.au/october-12-97/woodward-medals-honour-history-and-science</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Themis TR1D form</t>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://www.arc.gov.au/arc-centres-excellence%20</t>
+          <t>http://research.unimelb.edu.au/contact-us</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/arc/coe</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ARC Centres of Excellence</t>
+          <t>relevant grants team</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0018/3236220/Request-to-share-funding-between-University-of-Melbourne-departments-TR1F.msg</t>
+          <t>http://musse.unimelb.edu.au/february-11-53/woodward-medallists-named</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Themis TR1F form</t>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://healthandmedicalresearch.gov.au/images/help/NHMRC%20Sapphire%20MFA%20guide_HMR.pdf</t>
+          <t>http://blogs.unimelb.edu.au/researchnews/2011/12/19/woodward-medals/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NHMRC guide</t>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://staff.unimelb.edu.au/mdhs/research-development/research-collaboration-and-funding/grant-mentoring?_ga=2.207383891.1926808974.1707085361-5606f16a62243141946ac55ffe06e6048610a76b42147e009b562ba4af819daa</t>
+          <t>http://blogs.unimelb.edu.au/musse/?p=466</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MDHS Townhall videos</t>
+          <t>Article</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://musse.unimelb.edu.au/october-12-97/woodward-medals-honour-history-and-science</t>
+          <t>https://staff.unimelb.edu.au/research/grants/materials-past-seminars/us-grant-accelerator-program-workshops</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/department-of-defense-dod</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>https://staff.unimelb.edu.au/research/grants/materials-past-seminars/us-grant-accelerator-program-workshops</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://gateway.research.unimelb.edu.au/resources/ethics-and-integrity/research-integrity/research-integrity-in-practice/conflict-of-interest</t>
+          <t>https://vimeo.com/447312256/4c26b49d1a</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/early-career-industry-fellowship</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>here</t>
+          <t>Video</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://staff.unimelb.edu.au/research/research-systems/research-themis-guides/grants,-contracts-and-submissions/create-a-grant-submission-record</t>
+          <t>https://vimeo.com/780543000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-indonesia-research-partnership-program</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/decra</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Themis guide</t>
+          <t>video</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://musse.unimelb.edu.au/february-11-53/woodward-medallists-named</t>
+          <t>https://gateway.research.unimelb.edu.au/resources/outputs/research-outputs-support</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/decra</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>UoM Manage your research outputs</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://blogs.unimelb.edu.au/researchnews/2011/12/19/woodward-medals/</t>
+          <t>https://wellcome.ac.uk/funding/innovator-awards-digital-technologies</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/wellcome-trust</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>https://wellcome.ac.uk/funding/innovator-awards-digital-technologies</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://research.unimelb.edu.au/contact-us</t>
+          <t>https://research.unimelb.edu.au/partner/technology-licensing/for-researchers/intellectual-property-for-researchers</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/domestic</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/international-codes-and-contacts</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>relevant grants team</t>
+          <t>Case-by-case</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.manchester.ac.uk/collaborate/worldwide/collaborations/manchester-melbourne-research-fund/</t>
+          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0006/1272363/Sector-Growth-Program-Guidelines.pdf</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/university-of-melbourne-university-of-manchester-research-fund</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Manchester-Melbourne Research Fund scheme website</t>
+          <t>Sector Growth Program Guidelines</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://fbe-research.smartygrants.com.au/DE25</t>
+          <t>https://www.manchester.ac.uk/collaborate/worldwide/collaborations/manchester-melbourne-research-fund/</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/establishment-grants-decra</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/university-of-melbourne-university-of-manchester-research-fund</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Smartygrants</t>
+          <t>Manchester-Melbourne Research Fund scheme website</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://blogs.unimelb.edu.au/musse/?p=466</t>
+          <t>https://www.victoriancanceragency.vic.gov.au/2023-vca-funding-round-ecrf-research-output</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/vca-grants</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>HTTPSConnectionPool(host='www.victoriancanceragency.vic.gov.au', port=443): Max retries exceeded with url: /2023-vca-funding-round-ecrf-research-output (Caused by SSLError(SSLError(1, '[SSL: DECRYPTION_FAILED_OR_BAD_RECORD_MAC] decryption failed or bad record mac (_ssl.c:1133)')))</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://staff.unimelb.edu.au/research/grants/materials-past-seminars/us-grant-accelerator-program-workshops</t>
+          <t>https://healthandmedicalresearch.gov.au/images/help/NHMRC%20Sapphire%20MFA%20guide_HMR.pdf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/department-of-defense-dod</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://staff.unimelb.edu.au/research/grants/materials-past-seminars/us-grant-accelerator-program-workshops</t>
+          <t>NHMRC guide</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://library.unimelb.edu.au/openscholarship/open-access-publishing</t>
+          <t>https://staff.unimelb.edu.au/mdhs/research-development/research-collaboration-and-funding/grant-mentoring?_ga=2.207383891.1926808974.1707085361-5606f16a62243141946ac55ffe06e6048610a76b42147e009b562ba4af819daa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/the-carlo-and-rita-giugni-ecr-grant-for-aged-care-research</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://library.unimelb.edu.au/openscholarship/open-access-publishing;</t>
+          <t>MDHS Townhall videos</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://vimeo.com/447312256/4c26b49d1a</t>
+          <t>https://gateway.research.unimelb.edu.au/resources/ethics-and-integrity/research-integrity/research-integrity-in-practice/conflict-of-interest</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/arc/early-career-industry-fellowship</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/how-to-respond-to-arc-conflict-of-interest-and-arc-foreign-influence-transparency-questions</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Video</t>
+          <t>Conflict of Interest web page</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=download&amp;id=1XDQD4_K65J0Ur4nRWi-1UbTlh_EdPzC1</t>
+          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0008/3236219/Request-to-change-Departments.msg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/invertebrate-management-research-seed-funding-scheme</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[Errno 22] Invalid argument: 'downloads\\uc?export=download&amp;id=1XDQD4_K65J0Ur4nRWi-1UbTlh_EdPzC1'</t>
+          <t>Themis TR1D form</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://vimeo.com/780543000</t>
+          <t>https://www.nhmrc.gov.au/file/18388/download?token=t--n70KV</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/arc/discovery-indigenous</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>[Errno 22] Invalid argument: 'downloads\\download?token=t--n70KV'</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://gateway.research.unimelb.edu.au/resources/outputs/research-outputs-support</t>
+          <t>https://staff.unimelb.edu.au/research/research-systems/research-themis-guides/grants,-contracts-and-submissions/create-a-grant-submission-record</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/arc/discovery-indigenous</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-indonesia-research-partnership-program</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>UoM Manage your research outputs</t>
+          <t>Themis guide</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.eventbrite.com.au/e/491443991207</t>
+          <t>https://library.unimelb.edu.au/openscholarship/open-access-publishing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/mrff/EMCR-Workshop-series-MRFF</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/the-carlo-and-rita-giugni-ecr-grant-for-aged-care-research</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Please register your interest in the series</t>
+          <t>https://library.unimelb.edu.au/openscholarship/open-access-publishing;</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://portal.bihealth.de/portal/</t>
+          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0018/3236220/Request-to-share-funding-between-University-of-Melbourne-departments-TR1F.msg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/BUA</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://portal.bihealth.de/portal/</t>
+          <t>Themis TR1F form</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://www.business.vic.gov.au/support-for-your-business/future-industries/sectorgrowth</t>
+          <t>https://www.nhmrc.gov.au/file/14279/download?token=aK5Kr_gZ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sector Growth Program</t>
+          <t>Direct Research Costs</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0007/1272364/Sector-Growth-Fact-Sheet.pdf</t>
+          <t>http://www.arc.gov.au/important-dates</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sector Growth Program Fact Sheet </t>
+          <t>Important Dates webpage</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0004/1253245/NEJF-Application-Guidelines-21-Jan.pdf</t>
+          <t>https://www.arc.gov.au/grants/grant-administration</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>New Energy Jobs Fund Guidelines</t>
+          <t>post-award variation</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0006/1272363/Sector-Growth-Program-Guidelines.pdf</t>
+          <t>http://www.arc.gov.au/funding-agreement</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sector Growth Program Guidelines</t>
+          <t>ARC Funding/Grant Agreement</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0007/1242916/9348-DEDJTR-VFI-Fundsheet_NEW-ENERGY_GREEN-PROOF-v11.pdf</t>
+          <t>https://staff.unimelb.edu.au/research/research-systems/research-themis-guides/change-to-agreement-records-forms</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Energy Jobs Fund Fact Sheet </t>
+          <t>website</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://www.business.vic.gov.au/support-for-your-business/future-industries/future-industries-manufacturing-program</t>
+          <t>https://drive.google.com/uc?export=download&amp;id=1GlgAqLMZfKGrLJhDxMZo9OxnO1r4a9He</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/invertebrate-management-research-seed-funding-scheme</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Future Industries Manufacturing Program</t>
+          <t>[Errno 22] Invalid argument: 'downloads\\uc?export=download&amp;id=1GlgAqLMZfKGrLJhDxMZo9OxnO1r4a9He'</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://www.arc.gov.au/important-dates</t>
+          <t>http://research.unimelb.edu.au/contact-us/university-wide-contacts</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1007,175 +1012,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Important Dates webpage</t>
+          <t>RIC staff</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0006/1219335/Future-IndustriesI-Manufacturing-Program-Guidelines-.pdf</t>
+          <t>https://portal.bihealth.de/portal/</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/BUA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Manufacturing Program Guidelines</t>
+          <t>https://portal.bihealth.de/portal/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://www.business.vic.gov.au/__data/assets/pdf_file/0009/1219356/Future-Industries-Manufacturing-Program-Fact-Sheet.pdf</t>
+          <t>https://facultyandstaff.sgs.utoronto.ca/gfm/gfm-faqs</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/toronto-melbourne-irtg-call-for-proposals</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
-        <is>
-          <t>Manufacturing Program Fact Sheet</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://staff.unimelb.edu.au/research/research-systems/research-themis-guides/change-to-agreement-records-forms</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>website</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.arc.gov.au/grants/grant-administration</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>post-award variation</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>http://www.arc.gov.au/funding-agreement</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>ARC Funding/Grant Agreement</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>http://research.unimelb.edu.au/contact-us/university-wide-contacts</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>RIC staff</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://wellcome.ac.uk/funding/innovator-awards-digital-technologies</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/wellcome-trust</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://wellcome.ac.uk/funding/innovator-awards-digital-technologies</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.nhmrc.gov.au/file/14279/download?token=aK5Kr_gZ</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Direct Research Costs</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://research.unimelb.edu.au/partner/technology-licensing/for-researchers/intellectual-property-for-researchers</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/international-codes-and-contacts</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Case-by-case</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://facultyandstaff.sgs.utoronto.ca/gfm/gfm-faqs</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/toronto-melbourne-irtg-call-for-proposals</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>Full School of Graduate Studies (SGS) Graduate Faculty Membership</t>
         </is>

--- a/download_table/output.xlsx
+++ b/download_table/output.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,7 +437,3200 @@
     <col width="100" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>associated_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/resources</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/resources</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mrff</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/bonn-melbourne-research-excellence-fund</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/dyason</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/primary-industries</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/ecr</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/bonn-melbourne-research-excellence-fund</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mrff</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/establishment-grants-decra</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/ua-uom-germany</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/ecr</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/dyason</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/ua-uom-germany</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/establishment-grants-decra</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/itrh</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/primary-industries</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/IRTGs</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/itrh</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/IRTGs</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/uom-hebrew-university-of-jerusalem-joint-research-workshop-grants-program</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/uom-hebrew-university-of-jerusalem-joint-research-workshop-grants-program</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/crc</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/crc</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-manchester-call-for-jointly-awardeddual-phd-projects</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/invertebrate-management-research-seed-funding-scheme</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/investigator-grants</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/invertebrate-management-research-seed-funding-scheme</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-manchester-call-for-jointly-awardeddual-phd-projects</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/investigator-grants</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/arc-industry-laureate-fellowships</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/lief</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/arc-industry-laureate-fellowships</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/lief</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mary-lugton-scholarship-fund</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-scholarship</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/university-of-melbourne-university-of-manchester-research-fund</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mary-lugton-scholarship-fund</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-scholarship</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/university-of-melbourne-university-of-manchester-research-fund</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/postgraduate-scholarships</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/mid-career-industry-fellowship</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/cancer-council-victoria-grants-in-aid</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/mid-career-industry-fellowship</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/postgraduate-scholarships</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/cancer-council-victoria-grants-in-aid</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-research-fellowships</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project/mccoy-seed-fund-projects</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-research-fellowships</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project/mccoy-seed-fund-projects</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project/2015-mccoy-seed-fund-projects</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/decra</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project/2015-mccoy-seed-fund-projects</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/decra</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/research-collaboration-grants</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/schemes-for-international-collaboration</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/research-collaboration-grants</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/schemes-for-international-collaboration</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/research-collaboration-grants</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/vca-grants</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/vca-grants</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-jsps-open-partnership-joint-research-projects</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-bonn-joint-phd-program</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/cnrs-melbourne-graduate-research-projects-scheme</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-jsps-open-partnership-joint-research-projects</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-bonn-joint-phd-program</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/cnrs-melbourne-graduate-research-projects-scheme</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/university-of-melbourne-a*star-call-for-collaborative-phd-project-proposals</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/2023-rds-grants-calendar2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/university-of-melbourne-a*star-call-for-collaborative-phd-project-proposals</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/2023-rds-grants-calendar2</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mrff/EMCR-Workshop-series-MRFF</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mrff/EMCR-Workshop-series-MRFF</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/establishment-grants-ff</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/establishment-grants-ff</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medals</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mrff/current-funding-opportunities</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medals</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mrff/current-funding-opportunities</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-seed-fund</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-seed-fund</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/ku-leuven-melbourne-call-for-joint-phd-projects</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/ku-leuven-melbourne-call-for-joint-phd-projects</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-indonesia-research-partnership-program</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-indonesia-research-partnership-program</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project/2017-mccoy-seed-fund-projects</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project/2017-mccoy-seed-fund-projects</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/marles-medal2</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project/2016-mccoy-seed-fund-projects</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project/2016-mccoy-seed-fund-projects</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/marles-medal2</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/IGAP-funding</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/IGAP-funding</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-research-grant-support</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/puzey-postdoctoral-fellowship</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-research-grant-support</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/uom-sjtu-joint-phd-projects-with-paired-seed-funding</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/university-of-melbourne-university-of-toronto-join-research-program</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/uom-sjtu-joint-phd-projects-with-paired-seed-funding</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/puzey-postdoctoral-fellowship</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/toronto-melbourne-irtg-call-for-proposals</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/toronto-melbourne-irtg-call-for-proposals</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/university-of-melbourne-university-of-toronto-join-research-program</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/uom-hebrew-university-of-jerusalem-joint-research-workshop-grants-program/manage-your-grant-huj</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/veski-daad</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/veski-daad</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/uom-hebrew-university-of-jerusalem-joint-research-workshop-grants-program/manage-your-grant-huj</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/2023-rds-grants-calendar</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/the-carlo-and-rita-giugni-ecr-grant-for-aged-care-research</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/BUA</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/2023-rds-grants-calendar</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/victorian-cancer-agency-grants2</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/the-carlo-and-rita-giugni-ecr-grant-for-aged-care-research</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/BUA</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/application-process-faqs</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/nagoya-melbourne-joint-research-workshops-fund</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/victorian-cancer-agency-grants2</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/nagoya-melbourne-joint-research-workshops-fund</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/application-process-faqs</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/international-codes-and-contacts</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/international-codes-and-contacts</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/australian-laureate-fellowships</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/australian-laureate-fellowships</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/victorian-future-industries-fund</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/djpr-victorian-medical-research-acceleration-fund-vmraf-and-mrna-vmraf</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/djpr-victorian-medical-research-acceleration-fund-vmraf-and-mrna-vmraf</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/coe</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/cooperative-research-centres-projects</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/modern-manufacturing-initiative</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/cooperative-research-centres-projects</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/modern-manufacturing-initiative</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/coe</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/modern-manufacturing-initiative-manufacturing-integration</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/modern-manufacturing-initiative-manufacturing-integration</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/department-of-defense-dod</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/department-of-defense-dod</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/national-interest-test</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/national-interest-test</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/nisdrg</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/nisdrg</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants#Funding%20Partners</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants#Funding%20Partners</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/national-institutes-of-health-scheme</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/national-institutes-of-health-scheme</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/marles-medal</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/marles-medal</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/westpac</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/westpac</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/partnership-projects</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/partnership-projects</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-postdoctoral-fellowships</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/melbourne-postdoctoral-fellowships</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/early-career-industry-fellowship</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/early-career-industry-fellowship</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/woodward-medallists</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-gacd-funding-call</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-gacd-funding-call</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-amed-2024-aspire</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-amed-2024-aspire</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project/2014-mccoy-seed-fund-projects</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mccoy-project/2014-mccoy-seed-fund-projects</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/discovery-indigenous</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/discovery-indigenous</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/uom-cnrs-call-for-joint-phd-projects</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/uom-cnrs-call-for-joint-phd-projects</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/ittc</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/ittc</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/mrna-vraf-round-3</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/discovery-projects</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/discovery-projects</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/mrna-vraf-round-3</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/hokkaido-university-university-of-melbourne-joint-research-workshops</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/hokkaido-university-university-of-melbourne-joint-research-workshops</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/the-judy-yeung-ecr-grant-for-voluntary-assisted-dying-and-euthanasia-research2</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/the-judy-yeung-ecr-grant-for-voluntary-assisted-dying-and-euthanasia-research2</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/variation-request</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/variation-request</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/wellcome-trust</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/department-of-defense-dod/dod-agencies</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/wellcome-trust</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mrff/emcr-workshop-series-faqs</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/department-of-defense-dod/dod-agencies</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mrff/emcr-workshop-series-faqs</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/crc-for-developing-northern-australia-project-funding-round</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/crc-for-developing-northern-australia-project-funding-round</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant/**new**-variation-to-your-arc-grant-due-to-covid-20</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/manage-your-grant/**new**-variation-to-your-arc-grant-due-to-covid-20</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/clinical-trials-and-cohort-studies-grants</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/clinical-trials-and-cohort-studies-grants</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/how-to-respond-to-arc-conflict-of-interest-and-arc-foreign-influence-transparency-questions</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/how-to-respond-to-arc-conflict-of-interest-and-arc-foreign-influence-transparency-questions</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/cre</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/cre</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/uom-hebrew-university-of-jerusalem-call-for-joint-phd-projects</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/uom-hebrew-university-of-jerusalem-call-for-joint-phd-projects</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-collaborations-in-health-services-research</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-collaborations-in-health-services-research</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/development-grants</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/development-grants</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/research-impetus-grants</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/research-impetus-grants</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mckenzie-fellowship</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/mckenzie-fellowship</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/internal/establishment-grants-decra</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/internal/establishment-grants-decra</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/osaka-melbourne-joint-research-workshops-fund2</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/osaka-melbourne-joint-research-workshops-fund2</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/manchester-melbourne-toronto-research-fund</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/manchester-melbourne-toronto-research-fund</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/future-fellowships</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/future-fellowships</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/modern-manufacturing-initiative-manufacturing-collaboration</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/mi/modern-manufacturing-initiative-manufacturing-collaboration</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/linkage-projects</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/linkage-projects</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/establishment-grants-for-arc-industry-fellows2</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/establishment-grants-for-arc-industry-fellows2</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/us-gap-funding</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/us-gap-funding</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-e-asia-joint-research-program-grants</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-e-asia-joint-research-program-grants</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/marles-medallists</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/marles-medallists</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/2024-nhmrc-cihr-ccna</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/2024-nhmrc-cihr-ccna</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/national-institutes-of-health-scheme/national-institutes-of-health</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/national-institutes-of-health-scheme/national-institutes-of-health</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/linkage-projects#research_outputs</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/arc/linkage-projects#research_outputs</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/joyce-lambert</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/researcher-development-schemes/joyce-lambert</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/download_table/output.xlsx
+++ b/download_table/output.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,7 +437,144 @@
     <col width="100" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>source_link</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>associated_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://healthandmedicalresearch.gov.au/images/help/NHMRC%20Sapphire%20MFA%20guide_HMR.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NHMRC guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.nhmrc.gov.au/file/18387/download?token=NBnWlQ8-</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[Errno 22] Invalid argument: 'downloads\\download?token=NBnWlQ8-'</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://staff.unimelb.edu.au/mdhs/research-development/research-collaboration-and-funding/grant-mentoring?_ga=2.207383891.1926808974.1707085361-5606f16a62243141946ac55ffe06e6048610a76b42147e009b562ba4af819daa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MDHS Townhall videos</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0018/3236220/Request-to-share-funding-between-University-of-Melbourne-departments-TR1F.msg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Themis TR1F form</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0008/3236219/Request-to-change-Departments.msg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Themis TR1D form</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.nhmrc.gov.au/file/14279/download?token=aK5Kr_gZ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Direct Research Costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://gateway.research.unimelb.edu.au/resources/ethics-and-integrity/research-integrity/research-integrity-in-practice/conflict-of-interest</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>here</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/download_table/output.xlsx
+++ b/download_table/output.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,144 +425,7 @@
     <col width="100" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>source_link</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>associated_text</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://healthandmedicalresearch.gov.au/images/help/NHMRC%20Sapphire%20MFA%20guide_HMR.pdf</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NHMRC guide</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.nhmrc.gov.au/file/18387/download?token=NBnWlQ8-</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[Errno 22] Invalid argument: 'downloads\\download?token=NBnWlQ8-'</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://staff.unimelb.edu.au/mdhs/research-development/research-collaboration-and-funding/grant-mentoring?_ga=2.207383891.1926808974.1707085361-5606f16a62243141946ac55ffe06e6048610a76b42147e009b562ba4af819daa</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MDHS Townhall videos</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0018/3236220/Request-to-share-funding-between-University-of-Melbourne-departments-TR1F.msg</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Themis TR1F form</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0008/3236219/Request-to-change-Departments.msg</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Themis TR1D form</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.nhmrc.gov.au/file/14279/download?token=aK5Kr_gZ</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Direct Research Costs</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://gateway.research.unimelb.edu.au/resources/ethics-and-integrity/research-integrity/research-integrity-in-practice/conflict-of-interest</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>here</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/download_table/output.xlsx
+++ b/download_table/output.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>for</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>for</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>FOR</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>for</t>
         </is>
       </c>
     </row>
@@ -506,31 +506,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>for</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/international-codes-and-contacts</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/wellcome-trust</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>for</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/wellcome-trust</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/international/international-codes-and-contacts</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>for</t>
         </is>
       </c>
     </row>

--- a/download_table/output.xlsx
+++ b/download_table/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,84 +453,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>Accepting and managing your funding</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/department-of-defense-dod</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/manage-your-grant</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>Accepting, and, funding, managing, your</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/national-institutes-of-health-scheme</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/cancer-council-victoria-grants-in-aid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>Accepting, and, funding, managing, your</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/department-of-defense-dod/dod-agencies</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/vca-grants</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>Accepting, and, funding, managing, your</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/national-institutes-of-health-scheme/national-institutes-of-health</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/victorian-cancer-agency-grants2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>Accepting, and, funding, managing, your</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/international-codes-and-contacts</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/schemes-for-international-collaboration</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>Accepting, and, funding, managing, your</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/international/wellcome-trust</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/westpac</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>a b c</t>
+          <t>Accepting, and, funding, managing, your</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/djpr-victorian-medical-research-acceleration-fund-vmraf-and-mrna-vmraf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Accepting, and, funding, managing, your</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/mrna-vraf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Accepting, and, funding, managing, your</t>
         </is>
       </c>
     </row>

--- a/download_table/output.xlsx
+++ b/download_table/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,108 +453,216 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/domestic</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-e-asia-joint-research-program-grants</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Accepting and managing your funding</t>
+          <t>AEDTApplications</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/manage-your-grant</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/partnership-projects</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Accepting, and, funding, managing, your</t>
+          <t>ASAP</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/cancer-council-victoria-grants-in-aid</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/development-grants</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Accepting, and, funding, managing, your</t>
+          <t>ASAPRegister</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/vca-grants</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Accepting, and, funding, managing, your</t>
+          <t>ASAPRegister</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/victorian-cancer-agency-grants2</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants#Funding%20Partners</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Accepting, and, funding, managing, your</t>
+          <t>ASAPRegister</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/schemes-for-international-collaboration</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-gacd-funding-call</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Accepting, and, funding, managing, your</t>
+          <t>ASAPRegister</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/westpac</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Accepting, and, funding, managing, your</t>
+          <t>Accepting</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/djpr-victorian-medical-research-acceleration-fund-vmraf-and-mrna-vmraf</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Accepting, and, funding, managing, your</t>
+          <t>Accepting</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/domestic/mrna-vraf</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-amed-2024-aspire</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Accepting, and, funding, managing, your</t>
+          <t>Adopting</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/2024-nhmrc-cihr-ccna</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aging</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/postgraduate-scholarships</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-collaborations-in-health-services-research</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Australian</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/cre</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>aims</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/clinical-trials-and-cohort-studies-grants</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/investigator-grants</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>approvals,</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>available4</t>
         </is>
       </c>
     </row>

--- a/download_table/output.xlsx
+++ b/download_table/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>source_link</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>associated_text</t>
         </is>
       </c>
@@ -453,216 +458,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-e-asia-joint-research-program-grants</t>
+          <t>https://www.nhmrc.gov.au/file/14279/download?token=aK5Kr_gZ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AEDTApplications</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Direct Research Costs</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/partnership-projects</t>
+          <t>https://staff.unimelb.edu.au/mdhs/research-development/research-collaboration-and-funding/grant-mentoring?_ga=2.207383891.1926808974.1707085361-5606f16a62243141946ac55ffe06e6048610a76b42147e009b562ba4af819daa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASAP</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MDHS Townhall videos</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/development-grants</t>
+          <t>https://healthandmedicalresearch.gov.au/images/help/NHMRC%20Sapphire%20MFA%20guide_HMR.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASAPRegister</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NHMRC guide</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants</t>
+          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0008/3236219/Request-to-change-Departments.msg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASAPRegister</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Themis TR1D form</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/ideas-grants#Funding%20Partners</t>
+          <t>https://gateway.research.unimelb.edu.au/__data/assets/file/0018/3236220/Request-to-share-funding-between-University-of-Melbourne-departments-TR1F.msg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASAPRegister</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Themis TR1F form</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-gacd-funding-call</t>
+          <t>https://www.nhmrc.gov.au/file/18388/download?token=t--n70KV</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ASAPRegister</t>
+          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[Errno 22] Invalid argument: 'downloads\\download?token=t--n70KV'</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc</t>
+          <t>https://gateway.research.unimelb.edu.au/resources/ethics-and-integrity/research-integrity/research-integrity-in-practice/conflict-of-interest</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Accepting</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
           <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/manage-your-grant</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Accepting</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-amed-2024-aspire</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Adopting</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/2024-nhmrc-cihr-ccna</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Aging</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/postgraduate-scholarships</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/nhmrc-collaborations-in-health-services-research</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Australian</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/cre</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>aims</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/synergy-grants</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/clinical-trials-and-cohort-studies-grants</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/investigator-grants</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>approvals,</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://sites.research.unimelb.edu.au/research-funding/nhmrc/targeted-calls/eucrg</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>available4</t>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>here</t>
         </is>
       </c>
     </row>
